--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Procedur" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Practiti" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:16:32+00:00</t>
+    <t>2022-08-08T12:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedurePerformerRoleCodes_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_PractitionerRoleCodes_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/ValueSet-jp-procedure-performer-role-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:55:58+00:00</t>
+    <t>2022-08-09T09:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
